--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema5a-Met.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema5a-Met.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.477188923817327</v>
+        <v>0.4898806666666666</v>
       </c>
       <c r="H2">
-        <v>0.477188923817327</v>
+        <v>1.469642</v>
       </c>
       <c r="I2">
-        <v>0.02009506705291952</v>
+        <v>0.01965582386814743</v>
       </c>
       <c r="J2">
-        <v>0.02009506705291952</v>
+        <v>0.02319449744266509</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.0066635674006</v>
+        <v>2.500998666666666</v>
       </c>
       <c r="N2">
-        <v>1.0066635674006</v>
+        <v>7.502996</v>
       </c>
       <c r="O2">
-        <v>0.05387813629980828</v>
+        <v>0.08179813614512804</v>
       </c>
       <c r="P2">
-        <v>0.05387813629980828</v>
+        <v>0.1013554923061644</v>
       </c>
       <c r="Q2">
-        <v>0.4803687043740035</v>
+        <v>1.225190894159111</v>
       </c>
       <c r="R2">
-        <v>0.4803687043740035</v>
+        <v>11.026718047432</v>
       </c>
       <c r="S2">
-        <v>0.001082684761630985</v>
+        <v>0.001607809756811381</v>
       </c>
       <c r="T2">
-        <v>0.001082684761630985</v>
+        <v>0.002350889707095391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.477188923817327</v>
+        <v>0.4898806666666666</v>
       </c>
       <c r="H3">
-        <v>0.477188923817327</v>
+        <v>1.469642</v>
       </c>
       <c r="I3">
-        <v>0.02009506705291952</v>
+        <v>0.01965582386814743</v>
       </c>
       <c r="J3">
-        <v>0.02009506705291952</v>
+        <v>0.02319449744266509</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.68796431057096</v>
+        <v>0.8623146666666667</v>
       </c>
       <c r="N3">
-        <v>0.68796431057096</v>
+        <v>2.586944</v>
       </c>
       <c r="O3">
-        <v>0.0368208765020254</v>
+        <v>0.02820302683245761</v>
       </c>
       <c r="P3">
-        <v>0.0368208765020254</v>
+        <v>0.03494617119461054</v>
       </c>
       <c r="Q3">
-        <v>0.3282889489860857</v>
+        <v>0.4224312837831111</v>
       </c>
       <c r="R3">
-        <v>0.3282889489860857</v>
+        <v>3.801881554048</v>
       </c>
       <c r="S3">
-        <v>0.0007399179822554693</v>
+        <v>0.0005543537279674227</v>
       </c>
       <c r="T3">
-        <v>0.0007399179822554693</v>
+        <v>0.0008105588784043308</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.477188923817327</v>
+        <v>0.4898806666666666</v>
       </c>
       <c r="H4">
-        <v>0.477188923817327</v>
+        <v>1.469642</v>
       </c>
       <c r="I4">
-        <v>0.02009506705291952</v>
+        <v>0.01965582386814743</v>
       </c>
       <c r="J4">
-        <v>0.02009506705291952</v>
+        <v>0.02319449744266509</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.7389011736223</v>
+        <v>4.273522333333333</v>
       </c>
       <c r="N4">
-        <v>1.7389011736223</v>
+        <v>12.820567</v>
       </c>
       <c r="O4">
-        <v>0.09306858565095522</v>
+        <v>0.1397706309484552</v>
       </c>
       <c r="P4">
-        <v>0.09306858565095522</v>
+        <v>0.1731888008375808</v>
       </c>
       <c r="Q4">
-        <v>0.8297843796655122</v>
+        <v>2.093515969668222</v>
       </c>
       <c r="R4">
-        <v>0.8297843796655122</v>
+        <v>18.841643727014</v>
       </c>
       <c r="S4">
-        <v>0.001870219469176329</v>
+        <v>0.002747306903862672</v>
       </c>
       <c r="T4">
-        <v>0.001870219469176329</v>
+        <v>0.004017027198125502</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.477188923817327</v>
+        <v>0.4898806666666666</v>
       </c>
       <c r="H5">
-        <v>0.477188923817327</v>
+        <v>1.469642</v>
       </c>
       <c r="I5">
-        <v>0.02009506705291952</v>
+        <v>0.01965582386814743</v>
       </c>
       <c r="J5">
-        <v>0.02009506705291952</v>
+        <v>0.02319449744266509</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.54175810382474</v>
+        <v>5.239195333333333</v>
       </c>
       <c r="N5">
-        <v>3.54175810382474</v>
+        <v>15.717586</v>
       </c>
       <c r="O5">
-        <v>0.1895601788307117</v>
+        <v>0.1713541150096253</v>
       </c>
       <c r="P5">
-        <v>0.1895601788307117</v>
+        <v>0.2123236726894799</v>
       </c>
       <c r="Q5">
-        <v>1.690087737985424</v>
+        <v>2.566580502690222</v>
       </c>
       <c r="R5">
-        <v>1.690087737985424</v>
+        <v>23.099224524212</v>
       </c>
       <c r="S5">
-        <v>0.003809224504166567</v>
+        <v>0.003368106303711473</v>
       </c>
       <c r="T5">
-        <v>0.003809224504166567</v>
+        <v>0.004924740883213402</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.477188923817327</v>
+        <v>0.4898806666666666</v>
       </c>
       <c r="H6">
-        <v>0.477188923817327</v>
+        <v>1.469642</v>
       </c>
       <c r="I6">
-        <v>0.02009506705291952</v>
+        <v>0.01965582386814743</v>
       </c>
       <c r="J6">
-        <v>0.02009506705291952</v>
+        <v>0.02319449744266509</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.7087957868524</v>
+        <v>17.6992215</v>
       </c>
       <c r="N6">
-        <v>11.7087957868524</v>
+        <v>35.398443</v>
       </c>
       <c r="O6">
-        <v>0.6266722227164995</v>
+        <v>0.5788740910643339</v>
       </c>
       <c r="P6">
-        <v>0.6266722227164995</v>
+        <v>0.4781858629721645</v>
       </c>
       <c r="Q6">
-        <v>5.587307660724949</v>
+        <v>8.670506427901</v>
       </c>
       <c r="R6">
-        <v>5.587307660724949</v>
+        <v>52.023038567406</v>
       </c>
       <c r="S6">
-        <v>0.01259302033569018</v>
+        <v>0.01137824717579448</v>
       </c>
       <c r="T6">
-        <v>0.01259302033569018</v>
+        <v>0.01109128077582647</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.0683718616111</v>
+        <v>13.025931</v>
       </c>
       <c r="H7">
-        <v>12.0683718616111</v>
+        <v>39.077793</v>
       </c>
       <c r="I7">
-        <v>0.5082153622481805</v>
+        <v>0.5226485200912362</v>
       </c>
       <c r="J7">
-        <v>0.5082153622481805</v>
+        <v>0.6167418798615554</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.0066635674006</v>
+        <v>2.500998666666666</v>
       </c>
       <c r="N7">
-        <v>1.0066635674006</v>
+        <v>7.502996</v>
       </c>
       <c r="O7">
-        <v>0.05387813629980828</v>
+        <v>0.08179813614512804</v>
       </c>
       <c r="P7">
-        <v>0.05387813629980828</v>
+        <v>0.1013554923061644</v>
       </c>
       <c r="Q7">
-        <v>12.14879027092645</v>
+        <v>32.57783606309199</v>
       </c>
       <c r="R7">
-        <v>12.14879027092645</v>
+        <v>293.200524567828</v>
       </c>
       <c r="S7">
-        <v>0.02738169655686391</v>
+        <v>0.04275167480247263</v>
       </c>
       <c r="T7">
-        <v>0.02738169655686391</v>
+        <v>0.06251017685919723</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.0683718616111</v>
+        <v>13.025931</v>
       </c>
       <c r="H8">
-        <v>12.0683718616111</v>
+        <v>39.077793</v>
       </c>
       <c r="I8">
-        <v>0.5082153622481805</v>
+        <v>0.5226485200912362</v>
       </c>
       <c r="J8">
-        <v>0.5082153622481805</v>
+        <v>0.6167418798615554</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.68796431057096</v>
+        <v>0.8623146666666667</v>
       </c>
       <c r="N8">
-        <v>0.68796431057096</v>
+        <v>2.586944</v>
       </c>
       <c r="O8">
-        <v>0.0368208765020254</v>
+        <v>0.02820302683245761</v>
       </c>
       <c r="P8">
-        <v>0.0368208765020254</v>
+        <v>0.03494617119461054</v>
       </c>
       <c r="Q8">
-        <v>8.302609127487253</v>
+        <v>11.232451348288</v>
       </c>
       <c r="R8">
-        <v>8.302609127487253</v>
+        <v>101.092062134592</v>
       </c>
       <c r="S8">
-        <v>0.01871293508977236</v>
+        <v>0.0147402702360774</v>
       </c>
       <c r="T8">
-        <v>0.01871293508977236</v>
+        <v>0.02155276731652784</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.0683718616111</v>
+        <v>13.025931</v>
       </c>
       <c r="H9">
-        <v>12.0683718616111</v>
+        <v>39.077793</v>
       </c>
       <c r="I9">
-        <v>0.5082153622481805</v>
+        <v>0.5226485200912362</v>
       </c>
       <c r="J9">
-        <v>0.5082153622481805</v>
+        <v>0.6167418798615554</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.7389011736223</v>
+        <v>4.273522333333333</v>
       </c>
       <c r="N9">
-        <v>1.7389011736223</v>
+        <v>12.820567</v>
       </c>
       <c r="O9">
-        <v>0.09306858565095522</v>
+        <v>0.1397706309484552</v>
       </c>
       <c r="P9">
-        <v>0.09306858565095522</v>
+        <v>0.1731888008375808</v>
       </c>
       <c r="Q9">
-        <v>20.98570599386588</v>
+        <v>55.666607040959</v>
       </c>
       <c r="R9">
-        <v>20.98570599386588</v>
+        <v>500.999463368631</v>
       </c>
       <c r="S9">
-        <v>0.04729888497052602</v>
+        <v>0.07305091341742846</v>
       </c>
       <c r="T9">
-        <v>0.04729888497052602</v>
+        <v>0.1068127865995381</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.0683718616111</v>
+        <v>13.025931</v>
       </c>
       <c r="H10">
-        <v>12.0683718616111</v>
+        <v>39.077793</v>
       </c>
       <c r="I10">
-        <v>0.5082153622481805</v>
+        <v>0.5226485200912362</v>
       </c>
       <c r="J10">
-        <v>0.5082153622481805</v>
+        <v>0.6167418798615554</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.54175810382474</v>
+        <v>5.239195333333333</v>
       </c>
       <c r="N10">
-        <v>3.54175810382474</v>
+        <v>15.717586</v>
       </c>
       <c r="O10">
-        <v>0.1895601788307117</v>
+        <v>0.1713541150096253</v>
       </c>
       <c r="P10">
-        <v>0.1895601788307117</v>
+        <v>0.2123236726894799</v>
       </c>
       <c r="Q10">
-        <v>42.74325384083158</v>
+        <v>68.24539690752199</v>
       </c>
       <c r="R10">
-        <v>42.74325384083158</v>
+        <v>614.208572167698</v>
       </c>
       <c r="S10">
-        <v>0.09633739495228001</v>
+        <v>0.08955797462132414</v>
       </c>
       <c r="T10">
-        <v>0.09633739495228001</v>
+        <v>0.1309489010336194</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.0683718616111</v>
+        <v>13.025931</v>
       </c>
       <c r="H11">
-        <v>12.0683718616111</v>
+        <v>39.077793</v>
       </c>
       <c r="I11">
-        <v>0.5082153622481805</v>
+        <v>0.5226485200912362</v>
       </c>
       <c r="J11">
-        <v>0.5082153622481805</v>
+        <v>0.6167418798615554</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.7087957868524</v>
+        <v>17.6992215</v>
       </c>
       <c r="N11">
-        <v>11.7087957868524</v>
+        <v>35.398443</v>
       </c>
       <c r="O11">
-        <v>0.6266722227164995</v>
+        <v>0.5788740910643339</v>
       </c>
       <c r="P11">
-        <v>0.6266722227164995</v>
+        <v>0.4781858629721645</v>
       </c>
       <c r="Q11">
-        <v>141.3061016074001</v>
+        <v>230.5488380127165</v>
       </c>
       <c r="R11">
-        <v>141.3061016074001</v>
+        <v>1383.293028076299</v>
       </c>
       <c r="S11">
-        <v>0.3184844506787383</v>
+        <v>0.3025476870139336</v>
       </c>
       <c r="T11">
-        <v>0.3184844506787383</v>
+        <v>0.2949172480526729</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.2010095823474</v>
+        <v>11.4071155</v>
       </c>
       <c r="H12">
-        <v>11.2010095823474</v>
+        <v>22.814231</v>
       </c>
       <c r="I12">
-        <v>0.4716895706989001</v>
+        <v>0.4576956560406163</v>
       </c>
       <c r="J12">
-        <v>0.4716895706989001</v>
+        <v>0.3600636226957795</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.0066635674006</v>
+        <v>2.500998666666666</v>
       </c>
       <c r="N12">
-        <v>1.0066635674006</v>
+        <v>7.502996</v>
       </c>
       <c r="O12">
-        <v>0.05387813629980828</v>
+        <v>0.08179813614512804</v>
       </c>
       <c r="P12">
-        <v>0.05387813629980828</v>
+        <v>0.1013554923061644</v>
       </c>
       <c r="Q12">
-        <v>11.27564826465414</v>
+        <v>28.52918065601266</v>
       </c>
       <c r="R12">
-        <v>11.27564826465414</v>
+        <v>171.175083936076</v>
       </c>
       <c r="S12">
-        <v>0.02541375498131339</v>
+        <v>0.03743865158584403</v>
       </c>
       <c r="T12">
-        <v>0.02541375498131339</v>
+        <v>0.03649442573987175</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.2010095823474</v>
+        <v>11.4071155</v>
       </c>
       <c r="H13">
-        <v>11.2010095823474</v>
+        <v>22.814231</v>
       </c>
       <c r="I13">
-        <v>0.4716895706989001</v>
+        <v>0.4576956560406163</v>
       </c>
       <c r="J13">
-        <v>0.4716895706989001</v>
+        <v>0.3600636226957795</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.68796431057096</v>
+        <v>0.8623146666666667</v>
       </c>
       <c r="N13">
-        <v>0.68796431057096</v>
+        <v>2.586944</v>
       </c>
       <c r="O13">
-        <v>0.0368208765020254</v>
+        <v>0.02820302683245761</v>
       </c>
       <c r="P13">
-        <v>0.0368208765020254</v>
+        <v>0.03494617119461054</v>
       </c>
       <c r="Q13">
-        <v>7.705894835018345</v>
+        <v>9.836523000010667</v>
       </c>
       <c r="R13">
-        <v>7.705894835018345</v>
+        <v>59.019138000064</v>
       </c>
       <c r="S13">
-        <v>0.01736802342999758</v>
+        <v>0.01290840286841279</v>
       </c>
       <c r="T13">
-        <v>0.01736802342999758</v>
+        <v>0.01258284499967837</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.2010095823474</v>
+        <v>11.4071155</v>
       </c>
       <c r="H14">
-        <v>11.2010095823474</v>
+        <v>22.814231</v>
       </c>
       <c r="I14">
-        <v>0.4716895706989001</v>
+        <v>0.4576956560406163</v>
       </c>
       <c r="J14">
-        <v>0.4716895706989001</v>
+        <v>0.3600636226957795</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.7389011736223</v>
+        <v>4.273522333333333</v>
       </c>
       <c r="N14">
-        <v>1.7389011736223</v>
+        <v>12.820567</v>
       </c>
       <c r="O14">
-        <v>0.09306858565095522</v>
+        <v>0.1397706309484552</v>
       </c>
       <c r="P14">
-        <v>0.09306858565095522</v>
+        <v>0.1731888008375808</v>
       </c>
       <c r="Q14">
-        <v>19.47744870849852</v>
+        <v>48.74856284816283</v>
       </c>
       <c r="R14">
-        <v>19.47744870849852</v>
+        <v>292.491377088977</v>
       </c>
       <c r="S14">
-        <v>0.04389948121125287</v>
+        <v>0.06397241062716409</v>
       </c>
       <c r="T14">
-        <v>0.04389948121125287</v>
+        <v>0.06235898703991719</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.2010095823474</v>
+        <v>11.4071155</v>
       </c>
       <c r="H15">
-        <v>11.2010095823474</v>
+        <v>22.814231</v>
       </c>
       <c r="I15">
-        <v>0.4716895706989001</v>
+        <v>0.4576956560406163</v>
       </c>
       <c r="J15">
-        <v>0.4716895706989001</v>
+        <v>0.3600636226957795</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.54175810382474</v>
+        <v>5.239195333333333</v>
       </c>
       <c r="N15">
-        <v>3.54175810382474</v>
+        <v>15.717586</v>
       </c>
       <c r="O15">
-        <v>0.1895601788307117</v>
+        <v>0.1713541150096253</v>
       </c>
       <c r="P15">
-        <v>0.1895601788307117</v>
+        <v>0.2123236726894799</v>
       </c>
       <c r="Q15">
-        <v>39.67126645929747</v>
+        <v>59.76410629439433</v>
       </c>
       <c r="R15">
-        <v>39.67126645929747</v>
+        <v>358.584637766366</v>
       </c>
       <c r="S15">
-        <v>0.08941355937426511</v>
+        <v>0.07842803408458968</v>
       </c>
       <c r="T15">
-        <v>0.08941355937426511</v>
+        <v>0.07645003077264707</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.2010095823474</v>
+        <v>11.4071155</v>
       </c>
       <c r="H16">
-        <v>11.2010095823474</v>
+        <v>22.814231</v>
       </c>
       <c r="I16">
-        <v>0.4716895706989001</v>
+        <v>0.4576956560406163</v>
       </c>
       <c r="J16">
-        <v>0.4716895706989001</v>
+        <v>0.3600636226957795</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.7087957868524</v>
+        <v>17.6992215</v>
       </c>
       <c r="N16">
-        <v>11.7087957868524</v>
+        <v>35.398443</v>
       </c>
       <c r="O16">
-        <v>0.6266722227164995</v>
+        <v>0.5788740910643339</v>
       </c>
       <c r="P16">
-        <v>0.6266722227164995</v>
+        <v>0.4781858629721645</v>
       </c>
       <c r="Q16">
-        <v>131.1503338062826</v>
+        <v>201.8970639105833</v>
       </c>
       <c r="R16">
-        <v>131.1503338062826</v>
+        <v>807.588255642333</v>
       </c>
       <c r="S16">
-        <v>0.2955947517020711</v>
+        <v>0.2649481568746058</v>
       </c>
       <c r="T16">
-        <v>0.2955947517020711</v>
+        <v>0.1721773341436652</v>
       </c>
     </row>
   </sheetData>
